--- a/thesis.xlsx
+++ b/thesis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuqi\Desktop\2022-2023-2\graduation-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB607452-390A-45D1-94B1-1A6193F1344A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92444922-3F04-4164-B5EE-C75275D6104C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2D02D470-F7B5-4445-87CB-9D78F6705A90}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>Component</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,170 @@
   </si>
   <si>
     <t>These have an effect on how materials are shown and used when creating shadow effects.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_increament</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>near</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>far</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOV 代表视野，表示从摄像机的位置可以看到的场景部分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染区域的水平和垂直角度之间的纵横比。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该属性定义Three.js应该从多近的距离渲染场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该属性决定从相机的位置可以看到的最远距离。 如果该值设置得太低，场景的一部分可能无法被渲染。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于控制场景的缩放，小于1时表示缩小，大于1时则将场景放大。默认值为1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光源名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境光（THREE.AmbientLight）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚光灯（THREE.SpotLight）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平行光（THREE.SpotLight）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境光的颜色会直接添加到场景中对象的当前颜色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚光灯具有类似于台灯或手电筒的锥形效果，并且可以投射阴影。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也被称为无限光。 其光线可以看作是平行的，例如，来自太阳的光。 平行光也可用于创建阴影。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,12 +291,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -141,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -150,6 +329,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85486FDE-7768-4D39-A275-780BACC7ACD1}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="H1:I4"/>
+    <sheetView tabSelected="1" topLeftCell="J30" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33:T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,9 +671,17 @@
     <col min="2" max="2" width="46.875" customWidth="1"/>
     <col min="8" max="8" width="15.875" customWidth="1"/>
     <col min="9" max="9" width="47.375" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="7.5" customWidth="1"/>
+    <col min="15" max="15" width="16.875" customWidth="1"/>
+    <col min="17" max="17" width="10.875" customWidth="1"/>
+    <col min="18" max="18" width="41.125" customWidth="1"/>
+    <col min="19" max="19" width="27.875" customWidth="1"/>
+    <col min="20" max="20" width="43.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -493,7 +695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -507,7 +709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -521,7 +723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -534,6 +736,348 @@
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="21" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="10:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="10:18" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="10:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="10:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="10:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="10:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="19:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="19:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="19:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="19:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="19:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S37" s="6"/>
+      <c r="T37" s="7"/>
+    </row>
+    <row r="38" spans="19:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S38" s="6"/>
+      <c r="T38" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/thesis.xlsx
+++ b/thesis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuqi\Desktop\2022-2023-2\graduation-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92444922-3F04-4164-B5EE-C75275D6104C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E0BCBB-C857-4D5A-828F-C78E7060CB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2D02D470-F7B5-4445-87CB-9D78F6705A90}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>Component</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,63 @@
   </si>
   <si>
     <t>也被称为无限光。 其光线可以看作是平行的，例如，来自太阳的光。 平行光也可用于创建阴影。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileId</t>
+  </si>
+  <si>
+    <t>modelName</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>authorName</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>downloadLink</t>
+  </si>
+  <si>
+    <t>imageLink</t>
+  </si>
+  <si>
+    <t>该模型在模型信息表中对应的id，响应给webpack-dev-server用以唯一标识页面列表节点元素的id属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传该模型的用户定义的模型名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型文件的大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传该模型的用户的用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起接受列表信息请求的用户是否已收藏该模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型文件的下载链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于展示的图片文件的访问链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,12 +394,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -659,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85486FDE-7768-4D39-A275-780BACC7ACD1}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J30" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33:T36"/>
+    <sheetView tabSelected="1" topLeftCell="R32" workbookViewId="0">
+      <selection activeCell="W44" sqref="V37:W44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,6 +730,8 @@
     <col min="18" max="18" width="41.125" customWidth="1"/>
     <col min="19" max="19" width="27.875" customWidth="1"/>
     <col min="20" max="20" width="43.75" customWidth="1"/>
+    <col min="22" max="22" width="18.875" customWidth="1"/>
+    <col min="23" max="23" width="45.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -1039,7 +1092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="19:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="19:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S33" s="3" t="s">
         <v>50</v>
       </c>
@@ -1047,7 +1100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="19:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="19:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S34" s="4" t="s">
         <v>51</v>
       </c>
@@ -1055,7 +1108,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="19:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="19:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S35" s="4" t="s">
         <v>52</v>
       </c>
@@ -1063,21 +1116,81 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="19:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="19:23" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S36" s="4" t="s">
         <v>53</v>
       </c>
       <c r="T36" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="19:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S37" s="6"/>
-      <c r="T37" s="7"/>
-    </row>
-    <row r="38" spans="19:20" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S38" s="6"/>
-      <c r="T38" s="7"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+    </row>
+    <row r="37" spans="19:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T37" s="1"/>
+      <c r="V37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="19:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T38" s="1"/>
+      <c r="V38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="19:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="19:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="19:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="19:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="19:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="19:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
